--- a/routes/大物1.xlsx
+++ b/routes/大物1.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,15 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId4"/>
-  </externalReferences>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="43">
   <si>
     <t>本学期可辅导开课时间段-[星期一]</t>
   </si>
@@ -70,32 +67,96 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>田旭阳</t>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没空</t>
+  </si>
+  <si>
+    <t>晚上</t>
+  </si>
+  <si>
+    <t>0001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大学物理A(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>韦彦松</t>
+  </si>
+  <si>
+    <t>洪史聪</t>
+  </si>
+  <si>
+    <t>肖国华</t>
+  </si>
+  <si>
+    <t>杨容柱</t>
+  </si>
+  <si>
+    <t>杨淏</t>
+  </si>
+  <si>
+    <t>卢培清</t>
+  </si>
+  <si>
+    <t>2015150193</t>
+  </si>
+  <si>
+    <t>2015150087</t>
+  </si>
+  <si>
+    <t>2015150197</t>
+  </si>
+  <si>
+    <t>2014150258</t>
+  </si>
+  <si>
+    <t>2016150167</t>
+  </si>
+  <si>
+    <t>2015150086</t>
   </si>
   <si>
     <t>男</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13751041436</t>
+  </si>
+  <si>
+    <t>13760148975</t>
+  </si>
+  <si>
+    <t>13798229663</t>
+  </si>
+  <si>
+    <t>18219246025</t>
+  </si>
+  <si>
+    <t>15889606153</t>
+  </si>
+  <si>
+    <t>18138219336</t>
+  </si>
+  <si>
+    <t>13798281830</t>
+  </si>
+  <si>
+    <t>大学物理A(2)</t>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>否</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>没空</t>
-  </si>
-  <si>
-    <t>晚上</t>
-  </si>
-  <si>
-    <t>0001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大学物理A(2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>上午</t>
+  </si>
+  <si>
+    <t>下午</t>
   </si>
 </sst>
 </file>
@@ -130,7 +191,6 @@
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -142,7 +202,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -165,15 +225,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -190,27 +262,123 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-      <sheetName val="Sheet2"/>
-      <sheetName val="Sheet3"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="B2" t="str">
-            <v>2015150057</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>9525</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:to>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="2" name="图片 1"/>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+              <a:extLst>
+                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
+                  <a14:cameraTool cellRange="$G$2" spid="_x0000_s1028"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="6134100" y="600075"/>
+              <a:ext cx="1543050" cy="190500"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6134100" y="962025"/>
+          <a:ext cx="1543050" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -499,11 +667,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -561,53 +729,271 @@
     </row>
     <row r="2" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
         <v>14</v>
       </c>
-      <c r="C2" t="str">
-        <f>[1]Sheet1!$B$2</f>
-        <v>2015150057</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="H3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="I4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>18</v>
+      <c r="B5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
